--- a/剧情.xlsx
+++ b/剧情.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Documents\GitHub\GirlsFrontLine--last_wish\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3F33DBF-FC3B-47F5-96D9-08ACBF8FBC1A}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22703276-BFFA-47B4-933E-1BF5031642FB}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>第一章</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -64,6 +64,38 @@
   </si>
   <si>
     <t>登场人物</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>玩法设计目的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>教程关，教会玩家基本操作</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>引入地形破坏系统</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>引入友方火力支援系统</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>引入敌方火力支援系统</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>引入救援系统</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>引入</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>引入黑夜系统和道具系统</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -389,48 +421,89 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I3"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="13" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="25.5" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
         <v>0</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
         <v>1</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
         <v>2</v>
       </c>
-      <c r="E1" t="s">
+      <c r="D4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
         <v>3</v>
       </c>
-      <c r="F1" t="s">
+      <c r="D5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
         <v>4</v>
       </c>
-      <c r="G1" t="s">
+      <c r="D6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
         <v>5</v>
       </c>
-      <c r="H1" t="s">
+      <c r="D7" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
         <v>6</v>
       </c>
-      <c r="I1" t="s">
+      <c r="D8" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
         <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/剧情.xlsx
+++ b/剧情.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Documents\GitHub\GirlsFrontLine--last_wish\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22703276-BFFA-47B4-933E-1BF5031642FB}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54AF7596-9B5C-4806-BBF3-CDB7E7A0568B}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>第一章</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -91,11 +91,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>引入</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>引入黑夜系统和道具系统</t>
+    <t>所有关卡的结合</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>引入黑夜系统</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>引入道具系统，并加大地图</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -424,7 +428,7 @@
   <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -458,7 +462,7 @@
         <v>1</v>
       </c>
       <c r="D3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -466,7 +470,7 @@
         <v>2</v>
       </c>
       <c r="D4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
@@ -504,6 +508,9 @@
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>7</v>
+      </c>
+      <c r="D9" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>

--- a/剧情.xlsx
+++ b/剧情.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Documents\GitHub\GirlsFrontLine--last_wish\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54AF7596-9B5C-4806-BBF3-CDB7E7A0568B}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CED63FDE-B567-4D4B-9165-5C84FEC9744E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="53">
   <si>
     <t>第一章</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -63,10 +63,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>登场人物</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>玩法设计目的</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -100,6 +96,146 @@
   </si>
   <si>
     <t>引入道具系统，并加大地图</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第九章</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第十章</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第十一章</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>终章</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>塔防模式教程关</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>更多角色加入</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新敌人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高难度塔防+黑夜模式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>塔防模式结束</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sv98一行人准备撤离</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sv98一行人的飞机被铁血击落，作为队长她需要找回成员</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>夜幕降临了，sv98必须仔细的引导队友，穿越铁血的封锁线</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sv98一行人无意间来到铁血指挥部，发现了一份神秘文件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>视角转回指挥官这里，指挥官指挥仅有的人形进行防御</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>面对铁血愈演愈烈的攻势，更多人形加入到防守的行列中</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新的敌人出现了</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>夜幕降临，面对铁血人形的头目，指挥官不得不背水一战</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>白天</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>黑夜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sv98一行人在撤离的过程中遇到了铁血的火力打击，不得不小心前进</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sv-98一行人遇到了被铁血困住的火力支援小组的成员，必须救出她们</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>火力支援小组加入到sv-98一行人中，为sv-98一行人提供火力支援</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>终于和指挥官团聚了，但时间很紧了，撤离是必须的，sv98一行人必须协助撤离工作</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>名称-英文</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>名称-中文</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Please! Stay Alive…</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>雪色的希望</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A Wish Likes Snow</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>拜托了，活下去！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>极夜前的黎光</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Light Before Long Night</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无米之炊</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Make defence without dolls</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -425,92 +561,236 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="13" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="25.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="25.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.25" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25.375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="77.375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="25.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="5.25" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D1" t="s">
         <v>8</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1" t="s">
         <v>9</v>
       </c>
-      <c r="D1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>0</v>
       </c>
+      <c r="B2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C2" t="s">
+        <v>47</v>
+      </c>
       <c r="D2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+        <v>28</v>
+      </c>
+      <c r="E2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>1</v>
       </c>
       <c r="D3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+        <v>29</v>
+      </c>
+      <c r="E3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>2</v>
       </c>
       <c r="D4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+        <v>30</v>
+      </c>
+      <c r="E4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F4" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>3</v>
       </c>
       <c r="D5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+        <v>31</v>
+      </c>
+      <c r="E5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F5" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>4</v>
       </c>
+      <c r="B6" t="s">
+        <v>51</v>
+      </c>
+      <c r="C6" t="s">
+        <v>52</v>
+      </c>
       <c r="D6" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+        <v>32</v>
+      </c>
+      <c r="E6" t="s">
+        <v>22</v>
+      </c>
+      <c r="F6" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>5</v>
       </c>
       <c r="D7" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+        <v>33</v>
+      </c>
+      <c r="E7" t="s">
+        <v>23</v>
+      </c>
+      <c r="F7" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>6</v>
       </c>
       <c r="D8" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+        <v>34</v>
+      </c>
+      <c r="E8" t="s">
+        <v>24</v>
+      </c>
+      <c r="F8" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>7</v>
       </c>
+      <c r="B9" t="s">
+        <v>49</v>
+      </c>
+      <c r="C9" t="s">
+        <v>50</v>
+      </c>
       <c r="D9" t="s">
-        <v>16</v>
+        <v>35</v>
+      </c>
+      <c r="E9" t="s">
+        <v>25</v>
+      </c>
+      <c r="F9" t="s">
+        <v>38</v>
+      </c>
+      <c r="G9" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>18</v>
+      </c>
+      <c r="D10" t="s">
+        <v>39</v>
+      </c>
+      <c r="E10" t="s">
+        <v>13</v>
+      </c>
+      <c r="F10" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>19</v>
+      </c>
+      <c r="D11" t="s">
+        <v>40</v>
+      </c>
+      <c r="E11" t="s">
+        <v>14</v>
+      </c>
+      <c r="F11" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>20</v>
+      </c>
+      <c r="D12" t="s">
+        <v>41</v>
+      </c>
+      <c r="E12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F12" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13" t="s">
+        <v>48</v>
+      </c>
+      <c r="C13" t="s">
+        <v>45</v>
+      </c>
+      <c r="D13" t="s">
+        <v>42</v>
+      </c>
+      <c r="E13" t="s">
+        <v>15</v>
+      </c>
+      <c r="F13" t="s">
+        <v>37</v>
       </c>
     </row>
   </sheetData>

--- a/剧情.xlsx
+++ b/剧情.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Documents\GitHub\GirlsFrontLine--last_wish\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CED63FDE-B567-4D4B-9165-5C84FEC9744E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1BC0CF8-E277-4D1E-85C7-CF0C3009BF6E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="54">
   <si>
     <t>第一章</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -236,6 +236,10 @@
   </si>
   <si>
     <t>Make defence without dolls</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>敬，能看到的明天</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -564,7 +568,7 @@
   <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -763,6 +767,9 @@
       <c r="A12" t="s">
         <v>20</v>
       </c>
+      <c r="B12" t="s">
+        <v>53</v>
+      </c>
       <c r="D12" t="s">
         <v>41</v>
       </c>
